--- a/data/ltcm_exhibits_data.xlsx
+++ b/data/ltcm_exhibits_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzixin/Documents/development/FINM36700/finm-portfolio-2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B28D3DF-7B67-6B45-B56C-7B798C41AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E24C9AC-9B59-C24D-9049-50CF8224083C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41600" yWindow="-10300" windowWidth="25600" windowHeight="28300"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,11 @@
     <sheet name="Exhibit 4" sheetId="30" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Copyright © 2010 President and Fellows of Harvard College.  No part of this product may be reproduced, stored in a retrieval system or transmitted in any form or by any means—electronic, mechanical, photocopying, recording or otherwise—without the permission of Harvard Business School.</t>
   </si>
@@ -40,21 +31,6 @@
   </si>
   <si>
     <t>Index of Net Performance</t>
-  </si>
-  <si>
-    <t>Source: LTCM</t>
-  </si>
-  <si>
-    <r>
-      <t>Exhibit 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">     Fund Capital and Monthly Returns (June, 1994 to July, 1998)</t>
-    </r>
   </si>
   <si>
     <t>Month</t>
@@ -70,18 +46,6 @@
   </si>
   <si>
     <t>Capital Ratio</t>
-  </si>
-  <si>
-    <r>
-      <t>Exhibit 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">     The Fund’s Total Assets, Capital and Leverage (June, 1994 to July, 1998)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -112,32 +76,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gross of all fees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">b </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Net of fees paid to LTCM.</t>
-    </r>
-  </si>
-  <si>
     <t>Long-Term Capital - C</t>
   </si>
   <si>
@@ -150,12 +88,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="174" formatCode="0.0%"/>
-    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.0;[Red]&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="178" formatCode="0.0;[Red]0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0;[Red]&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0;[Red]0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -165,6 +103,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -226,7 +165,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -239,13 +178,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -254,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,12 +214,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -289,7 +222,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -305,7 +238,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -624,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -638,17 +571,17 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -676,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -693,140 +626,158 @@
     <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>34394</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>34425</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
-        <v>34394</v>
+        <v>34455</v>
       </c>
       <c r="B5" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C5" s="5">
-        <v>-1.0999999999999999E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>-1.2999999999999999E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
-        <v>34425</v>
+        <v>34486</v>
       </c>
       <c r="B6" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C6" s="5">
-        <v>1.4E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="D6" s="5">
-        <v>8.0000000000000002E-3</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
-        <v>34455</v>
+        <v>34516</v>
       </c>
       <c r="B7" s="6">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C7" s="5">
-        <v>6.8000000000000005E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D7" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="E7" s="4">
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
-        <v>34486</v>
+        <v>34547</v>
       </c>
       <c r="B8" s="6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="5">
-        <v>-3.9E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>-2.9000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4">
-        <v>1.02</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <v>34516</v>
+        <v>34578</v>
       </c>
       <c r="B9" s="6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="C9" s="5">
-        <v>0.11600000000000001</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D9" s="5">
-        <v>8.4000000000000005E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E9" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>34547</v>
+        <v>34608</v>
       </c>
       <c r="B10" s="6">
         <v>1.5</v>
       </c>
       <c r="C10" s="5">
-        <v>3.7999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="5">
-        <v>0.03</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E10" s="4">
         <v>1.1399999999999999</v>
@@ -834,840 +785,799 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
-        <v>34578</v>
+        <v>34639</v>
       </c>
       <c r="B11" s="6">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="C11" s="5">
-        <v>-4.0000000000000001E-3</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D11" s="5">
-        <v>-3.0000000000000001E-3</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E11" s="4">
-        <v>1.1299999999999999</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
-        <v>34608</v>
+        <v>34669</v>
       </c>
       <c r="B12" s="6">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="C12" s="5">
-        <v>0.01</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="D12" s="5">
-        <v>4.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
-        <v>34639</v>
+        <v>34700</v>
       </c>
       <c r="B13" s="6">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C13" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E13" s="4">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
-        <v>34669</v>
+        <v>34731</v>
       </c>
       <c r="B14" s="6">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="C14" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="5">
-        <v>-5.0000000000000001E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E14" s="4">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
-        <v>34700</v>
+        <v>34759</v>
       </c>
       <c r="B15" s="6">
         <v>1.8</v>
       </c>
       <c r="C15" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D15" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E15" s="4">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
-        <v>34731</v>
+        <v>34790</v>
       </c>
       <c r="B16" s="6">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C16" s="5">
-        <v>-8.0000000000000002E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>-6.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E16" s="4">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
-        <v>34759</v>
+        <v>34820</v>
       </c>
       <c r="B17" s="6">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="C17" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
-        <v>34790</v>
+        <v>34851</v>
       </c>
       <c r="B18" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="C18" s="5">
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>1.7000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="4">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
-        <v>34820</v>
+        <v>34881</v>
       </c>
       <c r="B19" s="6">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5">
-        <v>6.2E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>4.9000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E19" s="4">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
-        <v>34851</v>
+        <v>34912</v>
       </c>
       <c r="B20" s="6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="C20" s="5">
-        <v>1.2E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>0.01</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
-        <v>34881</v>
+        <v>34943</v>
       </c>
       <c r="B21" s="6">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="C21" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>0.04</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
-        <v>34912</v>
+        <v>34973</v>
       </c>
       <c r="B22" s="6">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="C22" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>2.7E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E22" s="4">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
-        <v>34943</v>
+        <v>35004</v>
       </c>
       <c r="B23" s="6">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="C23" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D23" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E23" s="4">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
-        <v>34973</v>
+        <v>35034</v>
       </c>
       <c r="B24" s="6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="C24" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>0.03</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E24" s="4">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
-        <v>35004</v>
+        <v>35065</v>
       </c>
       <c r="B25" s="6">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>2.8000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E25" s="4">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
-        <v>35034</v>
+        <v>35096</v>
       </c>
       <c r="B26" s="6">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C26" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D26" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E26" s="4">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
-        <v>35065</v>
+        <v>35125</v>
       </c>
       <c r="B27" s="6">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C27" s="5">
-        <v>8.7999999999999995E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D27" s="5">
-        <v>6.2E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E27" s="4">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
-        <v>35096</v>
+        <v>35156</v>
       </c>
       <c r="B28" s="6">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C28" s="5">
-        <v>4.2000000000000003E-2</v>
+        <v>0.111</v>
       </c>
       <c r="D28" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E28" s="4">
-        <v>1.88</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
-        <v>35125</v>
+        <v>35186</v>
       </c>
       <c r="B29" s="6">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C29" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D29" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="D29" s="5">
-        <v>1.0999999999999999E-2</v>
-      </c>
       <c r="E29" s="4">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
-        <v>35156</v>
+        <v>35217</v>
       </c>
       <c r="B30" s="6">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C30" s="5">
-        <v>0.111</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D30" s="5">
-        <v>8.1000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E30" s="4">
-        <v>2.0499999999999998</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
-        <v>35186</v>
+        <v>35247</v>
       </c>
       <c r="B31" s="6">
-        <v>4.5999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="C31" s="5">
-        <v>1.7000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D31" s="5">
-        <v>1.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E31" s="4">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
-        <v>35217</v>
+        <v>35278</v>
       </c>
       <c r="B32" s="6">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="C32" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D32" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="E32" s="4">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
-        <v>35247</v>
+        <v>35309</v>
       </c>
       <c r="B33" s="6">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="C33" s="5">
-        <v>1.9E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D33" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E33" s="4">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
-        <v>35278</v>
+        <v>35339</v>
       </c>
       <c r="B34" s="6">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="C34" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D34" s="5">
-        <v>-2E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="E34" s="4">
-        <v>2.21</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
-        <v>35309</v>
+        <v>35370</v>
       </c>
       <c r="B35" s="6">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="C35" s="5">
-        <v>7.0999999999999994E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D35" s="5">
-        <v>5.7000000000000002E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E35" s="4">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
-        <v>35339</v>
+        <v>35400</v>
       </c>
       <c r="B36" s="6">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="C36" s="5">
-        <v>-3.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D36" s="5">
-        <v>-6.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E36" s="4">
-        <v>2.3199999999999998</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
-        <v>35370</v>
+        <v>35431</v>
       </c>
       <c r="B37" s="6">
         <v>5.6</v>
       </c>
       <c r="C37" s="5">
-        <v>1.2999999999999999E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D37" s="5">
-        <v>1.0999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E37" s="4">
-        <v>2.34</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
-        <v>35400</v>
+        <v>35462</v>
       </c>
       <c r="B38" s="6">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="C38" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D38" s="5">
-        <v>2.9000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E38" s="4">
-        <v>2.41</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
-        <v>35431</v>
+        <v>35490</v>
       </c>
       <c r="B39" s="6">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="C39" s="5">
-        <v>6.0999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D39" s="5">
-        <v>4.2000000000000003E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E39" s="4">
-        <v>2.5099999999999998</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
-        <v>35462</v>
+        <v>35521</v>
       </c>
       <c r="B40" s="6">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="C40" s="5">
-        <v>6.0000000000000001E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D40" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E40" s="4">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
-        <v>35490</v>
+        <v>35551</v>
       </c>
       <c r="B41" s="6">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="5">
-        <v>2.1000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D41" s="5">
-        <v>1.6E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E41" s="4">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
-        <v>35521</v>
+        <v>35582</v>
       </c>
       <c r="B42" s="6">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="C42" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D42" s="5">
-        <v>0.01</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E42" s="4">
-        <v>2.59</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
-        <v>35551</v>
+        <v>35612</v>
       </c>
       <c r="B43" s="6">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="C43" s="5">
-        <v>4.2000000000000003E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D43" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E43" s="4">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
-        <v>35582</v>
+        <v>35643</v>
       </c>
       <c r="B44" s="6">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="C44" s="5">
-        <v>-1.7999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D44" s="5">
-        <v>-1.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E44" s="4">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="7">
-        <v>35612</v>
+        <v>35674</v>
       </c>
       <c r="B45" s="6">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="C45" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D45" s="5">
-        <v>0.01</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E45" s="4">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
-        <v>35643</v>
+        <v>35704</v>
       </c>
       <c r="B46" s="6">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="C46" s="5">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D46" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E46" s="4">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
-        <v>35674</v>
+        <v>35735</v>
       </c>
       <c r="B47" s="6">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C47" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="D47" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="E47" s="4">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
-        <v>35704</v>
+        <v>35765</v>
       </c>
       <c r="B48" s="6">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="C48" s="5">
-        <v>8.9999999999999993E-3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D48" s="5">
-        <v>3.0000000000000001E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E48" s="4">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
-        <v>35735</v>
+        <v>35796</v>
       </c>
       <c r="B49" s="6">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="C49" s="5">
-        <v>-0.01</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="D49" s="5">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E49" s="4">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
-        <v>35765</v>
+        <v>35827</v>
       </c>
       <c r="B50" s="6">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C50" s="5">
-        <v>3.1E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D50" s="5">
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E50" s="4">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
-        <v>35796</v>
+        <v>35855</v>
       </c>
       <c r="B51" s="6">
         <v>4.7</v>
       </c>
       <c r="C51" s="5">
-        <v>-1.2999999999999999E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D51" s="5">
-        <v>-1.7999999999999999E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E51" s="4">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
-        <v>35827</v>
+        <v>35886</v>
       </c>
       <c r="B52" s="6">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C52" s="5">
-        <v>1.2E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D52" s="5">
-        <v>1.2E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E52" s="4">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
-        <v>35855</v>
+        <v>35916</v>
       </c>
       <c r="B53" s="6">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C53" s="5">
-        <v>-3.0000000000000001E-3</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="D53" s="5">
-        <v>-3.0000000000000001E-3</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="E53" s="4">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
-        <v>35886</v>
+        <v>35947</v>
       </c>
       <c r="B54" s="6">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C54" s="5">
-        <v>2.7E-2</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="D54" s="5">
-        <v>1.9E-2</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="E54" s="4">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
-        <v>35916</v>
+        <v>35977</v>
       </c>
       <c r="B55" s="6">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C55" s="5">
-        <v>-6.7000000000000004E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D55" s="5">
-        <v>-6.4000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
-        <v>35947</v>
-      </c>
-      <c r="B56" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C56" s="5">
-        <v>-0.10100000000000001</v>
-      </c>
-      <c r="D56" s="5">
-        <v>-0.10100000000000001</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2.4</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
-        <v>35977</v>
-      </c>
-      <c r="B57" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C57" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2.4</v>
-      </c>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
     <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1677,11 +1587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A52" sqref="A52:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1693,95 +1603,120 @@
     <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>34486</v>
+      </c>
+      <c r="B2" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>34516</v>
+      </c>
+      <c r="B3" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>13.7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>34486</v>
+        <v>34547</v>
       </c>
       <c r="B4" s="9">
-        <v>17.399999999999999</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D4" s="9">
-        <v>14.5</v>
+        <v>15.7</v>
       </c>
       <c r="E4" s="5">
-        <v>6.9000000000000006E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>34516</v>
+        <v>34578</v>
       </c>
       <c r="B5" s="9">
-        <v>18.600000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="C5" s="9">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="D5" s="9">
-        <v>13.7</v>
+        <v>17.7</v>
       </c>
       <c r="E5" s="5">
-        <v>7.2999999999999995E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>34547</v>
+        <v>34608</v>
       </c>
       <c r="B6" s="9">
-        <v>23</v>
+        <v>26.2</v>
       </c>
       <c r="C6" s="9">
         <v>1.5</v>
       </c>
       <c r="D6" s="9">
-        <v>15.7</v>
+        <v>17.7</v>
       </c>
       <c r="E6" s="5">
-        <v>6.4000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>34578</v>
+        <v>34639</v>
       </c>
       <c r="B7" s="9">
-        <v>25.8</v>
+        <v>28.7</v>
       </c>
       <c r="C7" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D7" s="9">
-        <v>17.7</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E7" s="5">
         <v>5.6000000000000001E-2</v>
@@ -1789,220 +1724,220 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>34608</v>
+        <v>34669</v>
       </c>
       <c r="B8" s="9">
-        <v>26.2</v>
+        <v>29.5</v>
       </c>
       <c r="C8" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="9">
-        <v>17.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E8" s="5">
-        <v>5.7000000000000002E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>34639</v>
+        <v>34700</v>
       </c>
       <c r="B9" s="9">
-        <v>28.7</v>
+        <v>31.5</v>
       </c>
       <c r="C9" s="9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D9" s="9">
-        <v>17.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E9" s="5">
-        <v>5.6000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>34669</v>
+        <v>34731</v>
       </c>
       <c r="B10" s="9">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="C10" s="9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D10" s="9">
-        <v>18.100000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="E10" s="5">
-        <v>5.5E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>34700</v>
+        <v>34759</v>
       </c>
       <c r="B11" s="9">
-        <v>31.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="C11" s="9">
         <v>1.8</v>
       </c>
       <c r="D11" s="9">
-        <v>17.600000000000001</v>
+        <v>21.6</v>
       </c>
       <c r="E11" s="5">
-        <v>5.7000000000000002E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>34731</v>
+        <v>34790</v>
       </c>
       <c r="B12" s="9">
-        <v>29.8</v>
+        <v>43.7</v>
       </c>
       <c r="C12" s="9">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D12" s="9">
-        <v>16.7</v>
+        <v>20.2</v>
       </c>
       <c r="E12" s="5">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>34759</v>
+        <v>34820</v>
       </c>
       <c r="B13" s="9">
-        <v>39.700000000000003</v>
+        <v>49.7</v>
       </c>
       <c r="C13" s="9">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D13" s="9">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="E13" s="5">
-        <v>4.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>34790</v>
+        <v>34851</v>
       </c>
       <c r="B14" s="9">
-        <v>43.7</v>
+        <v>59.8</v>
       </c>
       <c r="C14" s="9">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="D14" s="9">
-        <v>20.2</v>
+        <v>23.8</v>
       </c>
       <c r="E14" s="5">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>34820</v>
+        <v>34881</v>
       </c>
       <c r="B15" s="9">
-        <v>49.7</v>
+        <v>64.8</v>
       </c>
       <c r="C15" s="9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="9">
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
       <c r="E15" s="5">
-        <v>4.8000000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>34851</v>
+        <v>34912</v>
       </c>
       <c r="B16" s="9">
-        <v>59.8</v>
+        <v>72</v>
       </c>
       <c r="C16" s="9">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D16" s="9">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="E16" s="5">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>34881</v>
+        <v>34943</v>
       </c>
       <c r="B17" s="9">
-        <v>64.8</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D17" s="9">
-        <v>21.6</v>
+        <v>26.1</v>
       </c>
       <c r="E17" s="5">
-        <v>4.5999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>34912</v>
+        <v>34973</v>
       </c>
       <c r="B18" s="9">
-        <v>72</v>
+        <v>101.3</v>
       </c>
       <c r="C18" s="9">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="9">
-        <v>23.3</v>
+        <v>28.7</v>
       </c>
       <c r="E18" s="5">
-        <v>4.2999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>34943</v>
+        <v>35004</v>
       </c>
       <c r="B19" s="9">
-        <v>86</v>
+        <v>106.4</v>
       </c>
       <c r="C19" s="9">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D19" s="9">
-        <v>26.1</v>
+        <v>29.1</v>
       </c>
       <c r="E19" s="5">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>34973</v>
+        <v>35034</v>
       </c>
       <c r="B20" s="9">
-        <v>101.3</v>
+        <v>102</v>
       </c>
       <c r="C20" s="9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D20" s="9">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="E20" s="5">
         <v>3.5000000000000003E-2</v>
@@ -2010,135 +1945,135 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>35004</v>
+        <v>35065</v>
       </c>
       <c r="B21" s="9">
-        <v>106.4</v>
+        <v>112.2</v>
       </c>
       <c r="C21" s="9">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D21" s="9">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="E21" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>35034</v>
+        <v>35096</v>
       </c>
       <c r="B22" s="9">
-        <v>102</v>
+        <v>115.4</v>
       </c>
       <c r="C22" s="9">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D22" s="9">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="E22" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>35065</v>
+        <v>35125</v>
       </c>
       <c r="B23" s="9">
-        <v>112.2</v>
+        <v>127.3</v>
       </c>
       <c r="C23" s="9">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D23" s="9">
-        <v>28.3</v>
+        <v>31.2</v>
       </c>
       <c r="E23" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>35096</v>
+        <v>35156</v>
       </c>
       <c r="B24" s="9">
-        <v>115.4</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="C24" s="9">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D24" s="9">
-        <v>27.9</v>
+        <v>28.9</v>
       </c>
       <c r="E24" s="5">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>35125</v>
+        <v>35186</v>
       </c>
       <c r="B25" s="9">
-        <v>127.3</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="C25" s="9">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D25" s="9">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="E25" s="5">
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>35156</v>
+        <v>35217</v>
       </c>
       <c r="B26" s="9">
-        <v>134.69999999999999</v>
+        <v>125.7</v>
       </c>
       <c r="C26" s="9">
-        <v>4.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D26" s="9">
-        <v>28.9</v>
+        <v>24.7</v>
       </c>
       <c r="E26" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>35186</v>
+        <v>35247</v>
       </c>
       <c r="B27" s="9">
-        <v>139.19999999999999</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="C27" s="9">
-        <v>4.5999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D27" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5">
-        <v>3.3000000000000002E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>35217</v>
+        <v>35278</v>
       </c>
       <c r="B28" s="9">
-        <v>125.7</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="C28" s="9">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="D28" s="9">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="E28" s="5">
         <v>0.04</v>
@@ -2146,442 +2081,405 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>35247</v>
+        <v>35309</v>
       </c>
       <c r="B29" s="9">
-        <v>130.30000000000001</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="C29" s="9">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D29" s="9">
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="E29" s="5">
-        <v>0.04</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>35278</v>
+        <v>35339</v>
       </c>
       <c r="B30" s="9">
-        <v>130.80000000000001</v>
+        <v>125.8</v>
       </c>
       <c r="C30" s="9">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D30" s="9">
-        <v>25.2</v>
+        <v>22.7</v>
       </c>
       <c r="E30" s="5">
-        <v>0.04</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>35309</v>
+        <v>35370</v>
       </c>
       <c r="B31" s="9">
-        <v>129.69999999999999</v>
+        <v>129</v>
       </c>
       <c r="C31" s="9">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D31" s="9">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="E31" s="5">
-        <v>4.2999999999999997E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>35339</v>
+        <v>35400</v>
       </c>
       <c r="B32" s="9">
-        <v>125.8</v>
+        <v>132.4</v>
       </c>
       <c r="C32" s="9">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="D32" s="9">
-        <v>22.7</v>
+        <v>25.6</v>
       </c>
       <c r="E32" s="5">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>35370</v>
+        <v>35431</v>
       </c>
       <c r="B33" s="9">
-        <v>129</v>
+        <v>137.6</v>
       </c>
       <c r="C33" s="9">
         <v>5.6</v>
       </c>
       <c r="D33" s="9">
-        <v>22.9</v>
+        <v>24.6</v>
       </c>
       <c r="E33" s="5">
-        <v>4.3999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>35400</v>
+        <v>35462</v>
       </c>
       <c r="B34" s="9">
-        <v>132.4</v>
+        <v>130.1</v>
       </c>
       <c r="C34" s="9">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="D34" s="9">
-        <v>25.6</v>
+        <v>22.8</v>
       </c>
       <c r="E34" s="5">
-        <v>3.9E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>35431</v>
+        <v>35490</v>
       </c>
       <c r="B35" s="9">
-        <v>137.6</v>
+        <v>121.8</v>
       </c>
       <c r="C35" s="9">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D35" s="9">
-        <v>24.6</v>
+        <v>21.2</v>
       </c>
       <c r="E35" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>35462</v>
+        <v>35521</v>
       </c>
       <c r="B36" s="9">
-        <v>130.1</v>
+        <v>111.9</v>
       </c>
       <c r="C36" s="9">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="D36" s="9">
-        <v>22.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E36" s="5">
-        <v>4.3999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>35490</v>
+        <v>35551</v>
       </c>
       <c r="B37" s="9">
-        <v>121.8</v>
+        <v>122.1</v>
       </c>
       <c r="C37" s="9">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D37" s="9">
-        <v>21.2</v>
+        <v>20.3</v>
       </c>
       <c r="E37" s="5">
-        <v>4.7E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>35521</v>
+        <v>35582</v>
       </c>
       <c r="B38" s="9">
-        <v>111.9</v>
+        <v>123.4</v>
       </c>
       <c r="C38" s="9">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D38" s="9">
-        <v>19.100000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="E38" s="5">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>35551</v>
+        <v>35612</v>
       </c>
       <c r="B39" s="9">
-        <v>122.1</v>
+        <v>128.6</v>
       </c>
       <c r="C39" s="9">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="D39" s="9">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="E39" s="5">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>35582</v>
+        <v>35643</v>
       </c>
       <c r="B40" s="9">
-        <v>123.4</v>
+        <v>126.4</v>
       </c>
       <c r="C40" s="9">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="D40" s="9">
-        <v>19.8</v>
+        <v>19</v>
       </c>
       <c r="E40" s="5">
-        <v>5.0999999999999997E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>35612</v>
+        <v>35674</v>
       </c>
       <c r="B41" s="9">
-        <v>128.6</v>
+        <v>134.1</v>
       </c>
       <c r="C41" s="9">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D41" s="9">
-        <v>20.8</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E41" s="5">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>35643</v>
+        <v>35704</v>
       </c>
       <c r="B42" s="9">
-        <v>126.4</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="C42" s="9">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D42" s="9">
-        <v>19</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E42" s="5">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>35674</v>
+        <v>35735</v>
       </c>
       <c r="B43" s="9">
-        <v>134.1</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="C43" s="9">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D43" s="9">
-        <v>19.899999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="E43" s="5">
-        <v>0.05</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>35704</v>
+        <v>35765</v>
       </c>
       <c r="B44" s="9">
-        <v>136.69999999999999</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="C44" s="9">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="D44" s="9">
-        <v>19.100000000000001</v>
+        <v>27.7</v>
       </c>
       <c r="E44" s="5">
-        <v>5.1999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>35735</v>
+        <v>35796</v>
       </c>
       <c r="B45" s="9">
-        <v>129.30000000000001</v>
+        <v>124.8</v>
       </c>
       <c r="C45" s="9">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="D45" s="9">
-        <v>18.3</v>
+        <v>26.4</v>
       </c>
       <c r="E45" s="5">
-        <v>5.5E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>35765</v>
+        <v>35827</v>
       </c>
       <c r="B46" s="9">
-        <v>129.19999999999999</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="C46" s="9">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D46" s="9">
-        <v>27.7</v>
+        <v>26.8</v>
       </c>
       <c r="E46" s="5">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>35796</v>
+        <v>35855</v>
       </c>
       <c r="B47" s="9">
-        <v>124.8</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="C47" s="9">
         <v>4.7</v>
       </c>
       <c r="D47" s="9">
-        <v>26.4</v>
+        <v>27.5</v>
       </c>
       <c r="E47" s="5">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>35827</v>
+        <v>35886</v>
       </c>
       <c r="B48" s="9">
-        <v>128.30000000000001</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="C48" s="9">
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D48" s="9">
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="E48" s="5">
-        <v>3.6999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>35855</v>
+        <v>35916</v>
       </c>
       <c r="B49" s="9">
-        <v>130.30000000000001</v>
+        <v>134.1</v>
       </c>
       <c r="C49" s="9">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="D49" s="9">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="E49" s="5">
-        <v>3.5999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>35886</v>
+        <v>35947</v>
       </c>
       <c r="B50" s="9">
-        <v>134.19999999999999</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="C50" s="9">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D50" s="9">
-        <v>27.5</v>
+        <v>31.3</v>
       </c>
       <c r="E50" s="5">
-        <v>3.5999999999999997E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>35916</v>
+        <v>35977</v>
       </c>
       <c r="B51" s="9">
-        <v>134.1</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="C51" s="9">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D51" s="9">
-        <v>29.5</v>
+        <v>31</v>
       </c>
       <c r="E51" s="5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>35947</v>
-      </c>
-      <c r="B52" s="9">
-        <v>128.30000000000001</v>
-      </c>
-      <c r="C52" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D52" s="9">
-        <v>31.3</v>
-      </c>
-      <c r="E52" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
-        <v>35977</v>
-      </c>
-      <c r="B53" s="9">
-        <v>128.19999999999999</v>
-      </c>
-      <c r="C53" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D53" s="9">
-        <v>31</v>
-      </c>
-      <c r="E53" s="5">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A53:E53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
